--- a/food.xlsx
+++ b/food.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,38 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>chocolate</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>300.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/food.xlsx
+++ b/food.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,38 @@
         <v>200</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/food.xlsx
+++ b/food.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>protein shake</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
